--- a/Jogos_do_Dia/2023-02-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -817,13 +817,13 @@
         <v>78</v>
       </c>
       <c r="F2">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="G2">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H2">
-        <v>3.93</v>
+        <v>5.61</v>
       </c>
       <c r="I2">
         <v>1.05</v>
@@ -838,10 +838,10 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="N2">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
         <v>1.42</v>
@@ -1129,13 +1129,13 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="G5">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H5">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -1150,10 +1150,10 @@
         <v>2.8</v>
       </c>
       <c r="M5">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="N5">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
         <v>1.44</v>
@@ -1236,10 +1236,10 @@
         <v>3.3</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H6">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="I6">
         <v>1.08</v>
@@ -1254,10 +1254,10 @@
         <v>2.8</v>
       </c>
       <c r="M6">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="N6">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O6">
         <v>1.48</v>
@@ -1337,13 +1337,13 @@
         <v>83</v>
       </c>
       <c r="F7">
-        <v>3.52</v>
+        <v>3.17</v>
       </c>
       <c r="G7">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="H7">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="I7">
         <v>1.05</v>
@@ -1358,7 +1358,7 @@
         <v>2.65</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="N7">
         <v>1.55</v>
@@ -1441,13 +1441,13 @@
         <v>84</v>
       </c>
       <c r="F8">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G8">
         <v>3.3</v>
       </c>
       <c r="H8">
-        <v>5.5</v>
+        <v>4.85</v>
       </c>
       <c r="I8">
         <v>1.09</v>
@@ -1462,10 +1462,10 @@
         <v>2.7</v>
       </c>
       <c r="M8">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O8">
         <v>1.5</v>
@@ -1525,7 +1525,7 @@
         <v>2.9</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1545,52 +1545,52 @@
         <v>85</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V9">
         <v>0.5</v>
@@ -1608,28 +1608,28 @@
         <v>2.41</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1733,7 +1733,7 @@
         <v>3.5</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1753,10 +1753,10 @@
         <v>87</v>
       </c>
       <c r="F11">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G11">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
         <v>3.75</v>
@@ -1774,10 +1774,10 @@
         <v>3.24</v>
       </c>
       <c r="M11">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="N11">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="O11">
         <v>1.4</v>
@@ -1857,13 +1857,13 @@
         <v>88</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="G12">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="H12">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -1878,10 +1878,10 @@
         <v>3.3</v>
       </c>
       <c r="M12">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -1961,13 +1961,13 @@
         <v>89</v>
       </c>
       <c r="F13">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="G13">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -1982,10 +1982,10 @@
         <v>3.75</v>
       </c>
       <c r="M13">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="N13">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -2033,7 +2033,7 @@
         <v>2.2</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE13">
         <v>1.31</v>
@@ -2065,13 +2065,13 @@
         <v>90</v>
       </c>
       <c r="F14">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="G14">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="H14">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I14">
         <v>1.09</v>
@@ -2080,10 +2080,10 @@
         <v>6.5</v>
       </c>
       <c r="K14">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L14">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M14">
         <v>2.41</v>
@@ -2377,13 +2377,13 @@
         <v>93</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="G17">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H17">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="I17">
         <v>1.02</v>
@@ -2481,13 +2481,13 @@
         <v>94</v>
       </c>
       <c r="F18">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G18">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H18">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I18">
         <v>1.07</v>
@@ -2505,7 +2505,7 @@
         <v>1.96</v>
       </c>
       <c r="N18">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O18">
         <v>1.44</v>
@@ -2544,25 +2544,25 @@
         <v>2.94</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>95</v>
       </c>
       <c r="F19">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="G19">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H19">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>1.05</v>
@@ -2606,10 +2606,10 @@
         <v>3.2</v>
       </c>
       <c r="M19">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="N19">
-        <v>1.76</v>
+        <v>2.05</v>
       </c>
       <c r="O19">
         <v>1.4</v>
@@ -2689,13 +2689,13 @@
         <v>96</v>
       </c>
       <c r="F20">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="G20">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="H20">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="I20">
         <v>1.12</v>
@@ -2793,13 +2793,13 @@
         <v>97</v>
       </c>
       <c r="F21">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="G21">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H21">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="I21">
         <v>1.07</v>
@@ -2897,13 +2897,13 @@
         <v>98</v>
       </c>
       <c r="F22">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="G22">
-        <v>3.05</v>
+        <v>2.93</v>
       </c>
       <c r="H22">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I22">
         <v>1.11</v>
@@ -3001,13 +3001,13 @@
         <v>99</v>
       </c>
       <c r="F23">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="G23">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="H23">
-        <v>4.75</v>
+        <v>3.71</v>
       </c>
       <c r="I23">
         <v>1.07</v>
@@ -3022,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <v>1.77</v>
+        <v>2.03</v>
       </c>
       <c r="N23">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="O23">
         <v>1.42</v>
@@ -3108,10 +3108,10 @@
         <v>1.81</v>
       </c>
       <c r="G24">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H24">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I24">
         <v>1.06</v>
@@ -3126,10 +3126,10 @@
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O24">
         <v>1.4</v>
@@ -3209,13 +3209,13 @@
         <v>101</v>
       </c>
       <c r="F25">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="G25">
-        <v>6.75</v>
+        <v>5.9</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>1.02</v>
@@ -3417,13 +3417,13 @@
         <v>103</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -3521,13 +3521,13 @@
         <v>104</v>
       </c>
       <c r="F28">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="G28">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="I28">
         <v>1.03</v>
@@ -3542,10 +3542,10 @@
         <v>2.92</v>
       </c>
       <c r="M28">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="N28">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O28">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-02-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
         <v>1.9</v>
@@ -969,10 +969,10 @@
         <v>2.24</v>
       </c>
       <c r="V3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>1.5</v>
@@ -1129,13 +1129,13 @@
         <v>81</v>
       </c>
       <c r="F5">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="G5">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -1153,7 +1153,7 @@
         <v>2.15</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
         <v>1.44</v>
@@ -1177,10 +1177,10 @@
         <v>1.3</v>
       </c>
       <c r="V5">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="W5">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="X5">
         <v>1.14</v>
@@ -1233,13 +1233,13 @@
         <v>82</v>
       </c>
       <c r="F6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="G6">
         <v>3.05</v>
       </c>
       <c r="H6">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="I6">
         <v>1.08</v>
@@ -1281,10 +1281,10 @@
         <v>1.22</v>
       </c>
       <c r="V6">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W6">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="X6">
         <v>1.54</v>
@@ -1337,13 +1337,13 @@
         <v>83</v>
       </c>
       <c r="F7">
-        <v>3.17</v>
+        <v>3.65</v>
       </c>
       <c r="G7">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H7">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="I7">
         <v>1.05</v>
@@ -1358,7 +1358,7 @@
         <v>2.65</v>
       </c>
       <c r="M7">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
         <v>1.55</v>
@@ -1385,10 +1385,10 @@
         <v>1.27</v>
       </c>
       <c r="V7">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="W7">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X7">
         <v>1.15</v>
@@ -1441,13 +1441,13 @@
         <v>84</v>
       </c>
       <c r="F8">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="G8">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H8">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>1.09</v>
@@ -1489,10 +1489,10 @@
         <v>2.05</v>
       </c>
       <c r="V8">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="W8">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="X8">
         <v>1.32</v>
@@ -1545,13 +1545,13 @@
         <v>85</v>
       </c>
       <c r="F9">
+        <v>2.8</v>
+      </c>
+      <c r="G9">
         <v>2.6</v>
       </c>
-      <c r="G9">
-        <v>2.85</v>
-      </c>
       <c r="H9">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="I9">
         <v>1.08</v>
@@ -1560,16 +1560,16 @@
         <v>6.05</v>
       </c>
       <c r="K9">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="M9">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="N9">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="O9">
         <v>1.53</v>
@@ -1593,10 +1593,10 @@
         <v>1.38</v>
       </c>
       <c r="V9">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W9">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="X9">
         <v>1.14</v>
@@ -1697,10 +1697,10 @@
         <v>1.4</v>
       </c>
       <c r="V10">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="W10">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="X10">
         <v>1.53</v>
@@ -1753,13 +1753,13 @@
         <v>87</v>
       </c>
       <c r="F11">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H11">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I11">
         <v>1.02</v>
@@ -1774,10 +1774,10 @@
         <v>3.24</v>
       </c>
       <c r="M11">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="N11">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="O11">
         <v>1.4</v>
@@ -1801,10 +1801,10 @@
         <v>1.75</v>
       </c>
       <c r="V11">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W11">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="X11">
         <v>1.76</v>
@@ -1857,13 +1857,13 @@
         <v>88</v>
       </c>
       <c r="F12">
-        <v>2.66</v>
+        <v>2.35</v>
       </c>
       <c r="G12">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="H12">
-        <v>2.53</v>
+        <v>2.95</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -1878,10 +1878,10 @@
         <v>3.3</v>
       </c>
       <c r="M12">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="N12">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -1905,10 +1905,10 @@
         <v>1.53</v>
       </c>
       <c r="V12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="X12">
         <v>1.94</v>
@@ -1961,13 +1961,13 @@
         <v>89</v>
       </c>
       <c r="F13">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H13">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="I13">
         <v>1.04</v>
@@ -1982,10 +1982,10 @@
         <v>3.75</v>
       </c>
       <c r="M13">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="N13">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -2009,10 +2009,10 @@
         <v>1.44</v>
       </c>
       <c r="V13">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="W13">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="X13">
         <v>1.54</v>
@@ -2065,13 +2065,13 @@
         <v>90</v>
       </c>
       <c r="F14">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="G14">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="I14">
         <v>1.09</v>
@@ -2080,16 +2080,16 @@
         <v>6.5</v>
       </c>
       <c r="K14">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="L14">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="M14">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="N14">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="O14">
         <v>1.56</v>
@@ -2113,10 +2113,10 @@
         <v>1.75</v>
       </c>
       <c r="V14">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="W14">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="X14">
         <v>1.73</v>
@@ -2217,10 +2217,10 @@
         <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="W15">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="X15">
         <v>1.37</v>
@@ -2321,10 +2321,10 @@
         <v>1.49</v>
       </c>
       <c r="V16">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="W16">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X16">
         <v>1.43</v>
@@ -2377,13 +2377,13 @@
         <v>93</v>
       </c>
       <c r="F17">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H17">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="I17">
         <v>1.02</v>
@@ -2425,10 +2425,10 @@
         <v>1.12</v>
       </c>
       <c r="V17">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="W17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="X17">
         <v>1.77</v>
@@ -2481,13 +2481,13 @@
         <v>94</v>
       </c>
       <c r="F18">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="G18">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H18">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="I18">
         <v>1.07</v>
@@ -2529,10 +2529,10 @@
         <v>1.28</v>
       </c>
       <c r="V18">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="W18">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>1.37</v>
@@ -2565,7 +2565,7 @@
         <v>3.15</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2585,13 +2585,13 @@
         <v>95</v>
       </c>
       <c r="F19">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="G19">
         <v>3.8</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I19">
         <v>1.05</v>
@@ -2606,10 +2606,10 @@
         <v>3.2</v>
       </c>
       <c r="M19">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="N19">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="O19">
         <v>1.4</v>
@@ -2633,10 +2633,10 @@
         <v>2.18</v>
       </c>
       <c r="V19">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W19">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="X19">
         <v>1.49</v>
@@ -2689,13 +2689,13 @@
         <v>96</v>
       </c>
       <c r="F20">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="G20">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="H20">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
       <c r="I20">
         <v>1.12</v>
@@ -2710,10 +2710,10 @@
         <v>2.43</v>
       </c>
       <c r="M20">
-        <v>2.58</v>
+        <v>2.65</v>
       </c>
       <c r="N20">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="O20">
         <v>1.62</v>
@@ -2737,10 +2737,10 @@
         <v>1.47</v>
       </c>
       <c r="V20">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="W20">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>1.51</v>
@@ -2793,13 +2793,13 @@
         <v>97</v>
       </c>
       <c r="F21">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="G21">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H21">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I21">
         <v>1.07</v>
@@ -2841,10 +2841,10 @@
         <v>1.44</v>
       </c>
       <c r="V21">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="X21">
         <v>1.55</v>
@@ -2897,13 +2897,13 @@
         <v>98</v>
       </c>
       <c r="F22">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="G22">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="I22">
         <v>1.11</v>
@@ -2912,10 +2912,10 @@
         <v>6.75</v>
       </c>
       <c r="K22">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="L22">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="M22">
         <v>2.53</v>
@@ -2945,10 +2945,10 @@
         <v>1.47</v>
       </c>
       <c r="V22">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="W22">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="X22">
         <v>1.2</v>
@@ -3001,13 +3001,13 @@
         <v>99</v>
       </c>
       <c r="F23">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="G23">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="H23">
-        <v>3.71</v>
+        <v>4.75</v>
       </c>
       <c r="I23">
         <v>1.07</v>
@@ -3022,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <v>2.03</v>
+        <v>1.77</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="O23">
         <v>1.42</v>
@@ -3049,10 +3049,10 @@
         <v>1.8</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         <v>100</v>
       </c>
       <c r="F24">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="G24">
         <v>3.3</v>
       </c>
       <c r="H24">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="I24">
         <v>1.06</v>
@@ -3126,10 +3126,10 @@
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N24">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="O24">
         <v>1.4</v>
@@ -3209,13 +3209,13 @@
         <v>101</v>
       </c>
       <c r="F25">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="G25">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>1.02</v>
@@ -3521,13 +3521,13 @@
         <v>104</v>
       </c>
       <c r="F28">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H28">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="I28">
         <v>1.03</v>
@@ -3542,10 +3542,10 @@
         <v>2.92</v>
       </c>
       <c r="M28">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="N28">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O28">
         <v>1.44</v>
